--- a/pred_ohlcv/54_21/2020-01-15 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1999768.696999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1999768.696999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2002648.696999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2002448.696999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2004266.696999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2002248.696999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2017248.696999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2017048.696999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2029238.696999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2029048.696999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2036848.696999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2036648.696999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2102409.036799999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2151845.267599999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2137301.267599999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1959724.034</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2103368.937599999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2103558.937599999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2101740.937599999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2100894.9725</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1120206.8061</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>191878.4738999997</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-625568.2333000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-625378.2333000002</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-625578.2333000002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-613812.8435000002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-558006.9875000002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1851845.78</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1668189.5107</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1636874.899</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3721146.25</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3720924.25</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3721827.4036</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3688712.016</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3683464.2669</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3342889.0994</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3948051.2255</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3948651.2255</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3968651.2255</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4083136.3947</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3970054.132699999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3976654.132699999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4294033.9493</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-6760242.4594</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-6757736.399</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9357736.399</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9831791.7344</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9311791.7344</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9226488.809087001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9326488.809087001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9295828.830487002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8862815.468987001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-9008235.185087001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9009212.185087001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9007394.185087001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9111420.664287001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9111198.664287001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9111198.664287001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9754167.116287</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9752149.116287</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-9731522.044887001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9731522.044887001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-9811114.973487001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-9811336.973487001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-10334603.824987</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-11544865.587987</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-12761415.104587</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18375393.35424036</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-18311713.28574036</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-18266116.34434036</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-18338102.07884036</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-18563985.57144036</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-18132544.44394036</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-18137543.72434036</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-18534974.50394036</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-18536792.50394036</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-18536570.50394036</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-19390930.48014036</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-19390708.48014036</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-19789900.15994036</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-19949615.34074036</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-20732966.77395627</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-20545783.25270452</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-20614179.76660452</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11618844.31271475</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-10980510.70891475</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-11130014.26711475</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-11663751.50041475</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-13222849.58281297</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-23914597.87031296</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-66264115.14521637</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-64986616.54701637</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-64483571.64351637</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-64868134.71241637</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-64867637.71241637</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-64683298.38341636</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-64872442.40881636</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-64873442.40881636</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-64870910.31761636</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-64870910.31761636</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-64912823.89241636</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-64911643.73721636</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-64911643.73721636</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-64840013.13661636</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-63897538.14051636</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-66777071.14521636</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-66777071.14521636</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-88322199.08959544</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-89038077.20499544</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-89608158.54449543</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-88539813.00159544</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-89614502.11469544</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-88708282.80289544</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-88664375.97899544</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-88409855.44029544</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-78839849.30949542</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-80020259.42079543</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-80020037.42079543</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-80020037.42079543</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-80019815.42079543</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-81280161.10219543</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-81280161.10219543</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-81279017.10219543</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-82279464.01569542</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-83290945.14659542</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-83290945.14659542</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-83775612.22409542</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-83775612.22409542</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-83772948.22409542</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-83772948.22409542</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-80880578.84649542</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-80778126.92319542</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-80924271.33909543</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-82439210.94199543</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-80862137.32729542</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-80850703.03689542</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-80851147.03689542</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-80851147.03689542</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-80917969.72109543</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-81611582.32109542</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-80154551.00239542</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-80154351.00239542</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-80169090.38699542</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-79564565.91319542</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-80012497.13399541</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-80012497.13399541</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-80014449.84589541</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-80014449.84589541</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-83579062.9703954</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-83260341.80699541</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-83260341.80699541</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-83260633.80699541</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-83022002.17859541</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-83022423.17859541</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-83022423.17859541</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-83022227.17859541</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-83022893.17859541</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-83022893.17859541</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-83021071.17859541</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-83101755.33039542</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-83101558.33039542</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-82760478.83585937</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-82764922.83585937</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-82865366.83585937</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-82864778.83585937</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-82847812.13005938</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-82848230.13005938</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-82848230.13005938</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-83601450.78455937</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-83601450.78455937</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-83598404.64595936</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-83553333.61225936</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-83553333.61225936</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-83703357.14075936</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-83703357.14075936</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-83705392.86185937</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-83520026.32615937</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-83699114.34795937</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-84188540.44745937</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-84111840.97695936</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-82852612.90765937</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-82852612.90765937</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-83127383.42675936</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-83127383.42675936</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-82886481.82245935</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-82886703.82245935</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-82885809.82245935</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-83265473.92945935</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-83224722.70225935</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-83428764.83485934</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-83425430.11155935</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-83615446.04675935</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-81891135.83311899</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-81895363.61561899</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-91021654.23137224</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-91020043.23137224</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-91019842.23137224</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-93433493.51287223</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-93432063.51287223</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-93396778.65457223</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-93266932.31667224</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-92286312.48607224</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-92134630.21247225</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-91996013.55047224</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-91686173.99767224</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-96996652.57887223</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-97677543.96887223</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-100591682.9944723</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-102394319.9720722</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-101789695.6716722</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-101089695.6716722</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-101613148.3271722</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-101747181.9430722</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-109178967.6634722</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1999768.696999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1999768.696999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2002648.696999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2002448.696999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2004266.696999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2002248.696999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2017248.696999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2017048.696999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2029238.696999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2029048.696999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2036848.696999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2036648.696999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2102409.036799999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2151845.267599999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2148209.267599999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2140937.267599999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2137301.267599999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1959724.034</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2105186.937599999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2103368.937599999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2103558.937599999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2101740.937599999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2101296.537599999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2110204.9725</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2107204.9725</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2100704.9725</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2100894.9725</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1120206.8061</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>191878.4738999997</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-625568.2333000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-625378.2333000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-625578.2333000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-613812.8435000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-558006.9875000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-822798.6129000002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1851845.78</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1744512.6287</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1668189.5107</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1636874.899</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1753124.3201</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3721146.25</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3720924.25</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3721827.4036</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3721607.4036</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3688712.016</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3521712.5575</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3683464.2669</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3342889.0994</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3175560.9952</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3175742.9952</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3948051.2255</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3948651.2255</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3968651.2255</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4083136.3947</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3970054.132699999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3976654.132699999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3941654.132699999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4294033.9493</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-6760242.4594</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-6757736.399</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9357736.399</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9831791.7344</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9311791.7344</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9226488.809087001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9326488.809087001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9295828.830487002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8862815.468987001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-9008435.185087001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-9008235.185087001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9009212.185087001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9007394.185087001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9111420.664287001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9111198.664287001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9111198.664287001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-9323118.926387001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-9754167.116287</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9752149.116287</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-9731522.044887001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9731522.044887001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-9811114.973487001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-9811336.973487001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-10334603.824987</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-11544865.587987</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-12761415.104587</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18375393.35424036</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-18311713.28574036</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-18266116.34434036</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-18338102.07884036</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-18563985.57144036</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-18132544.44394036</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-18137543.72434036</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-18536136.50394036</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-18534974.50394036</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-18536792.50394036</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-18536570.50394036</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-18538995.15264036</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-19390930.48014036</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-19390708.48014036</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-19790122.15994036</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-19789900.15994036</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-19949615.34074036</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-20732966.77395627</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-20545783.25270452</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-20614179.76660452</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-17816993.23572176</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-17817193.23572176</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-17817593.23572176</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-17565591.92172176</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-13156028.00022176</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-11610418.29501475</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11607383.06271475</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11618844.31271475</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-11618294.31271475</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10970145.39931475</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-10970145.39931475</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-10980510.70891475</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-11130236.26711475</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-11130014.26711475</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-11663751.50041475</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-12428662.50841475</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-13291622.71481297</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-13292288.71481297</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-23914597.87031296</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-66264115.14521637</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-64986616.54701637</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-64483571.64351637</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-64868134.71241637</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-64867637.71241637</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-64683298.38341636</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-64872442.40881636</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-64873442.40881636</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-64870910.31761636</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-64870910.31761636</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-64912823.89241636</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-64911643.73721636</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-64911643.73721636</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-64840013.13661636</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-63897538.14051636</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-65999301.99561636</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-66777071.14521636</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-66777071.14521636</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-89548597.51809543</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-89038077.20499544</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-89608158.54449543</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-89955296.14819543</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-88539813.00159544</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-89614502.11469544</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-88708282.80289544</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-88664375.97899544</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-88409855.44029544</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-86395704.82499544</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-86072512.54739544</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-85733066.00479543</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-84621237.94549543</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-78839849.30949542</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-80020259.42079543</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-80020037.42079543</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-80020037.42079543</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-80019815.42079543</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-81280161.10219543</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-81280161.10219543</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-81279017.10219543</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-82279464.01569542</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-83290945.14659542</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-83290945.14659542</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-83775612.22409542</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-83775612.22409542</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-83772948.22409542</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-83772948.22409542</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-83772750.22409542</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-80880578.84649542</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-80778126.92319542</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-80924271.33909543</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-80986495.80909543</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-82439210.94199543</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-80862137.32729542</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-80850703.03689542</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-80851147.03689542</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-80851147.03689542</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-80917969.72109543</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-81611582.32109542</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-80154551.00239542</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-80154351.00239542</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-80169090.38699542</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-79564565.91319542</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-80012497.13399541</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-80012497.13399541</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-80014449.84589541</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-80014449.84589541</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-83165863.5725954</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-83579062.9703954</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-83260341.80699541</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-83260341.80699541</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-83260633.80699541</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-83022002.17859541</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-83022423.17859541</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-83022423.17859541</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-83022227.17859541</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-83022893.17859541</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-83022893.17859541</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-83021071.17859541</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-83101755.33039542</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-83101558.33039542</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-82760478.83585937</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-82764922.83585937</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-82865366.83585937</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-82864778.83585937</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-82847812.13005938</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-82848230.13005938</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-82848230.13005938</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-83601450.78455937</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-83601450.78455937</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-83598404.64595936</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-83553333.61225936</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-83553333.61225936</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-83703357.14075936</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-83703357.14075936</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-83705392.86185937</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-83520026.32615937</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-83699114.34795937</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-84188540.44745937</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-84111840.97695936</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-82852612.90765937</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-82852612.90765937</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-83127383.42675936</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-83127383.42675936</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-82886481.82245935</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-82886703.82245935</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-82885809.82245935</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-83265473.92945935</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-83224722.70225935</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-83428764.83485934</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-83425430.11155935</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-83615446.04675935</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-81891135.83311899</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-81895363.61561899</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-91021654.23137224</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-91020043.23137224</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-91019842.23137224</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-93433493.51287223</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-93432063.51287223</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-93396778.65457223</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-93266932.31667224</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-92734032.31057224</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-92286312.48607224</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-92134630.21247225</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-91996013.55047224</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-91686173.99767224</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-96996652.57887223</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-97677543.96887223</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-98725085.09637225</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-98690785.75847225</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-100591682.9944723</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-100585211.1050722</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-102394319.9720722</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-101788763.6716722</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-101789695.6716722</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-101089695.6716722</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-101613148.3271722</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-101747181.9430722</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-99502601.21557222</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-102412990.2786722</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-102215697.1396722</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-102215697.1396722</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-102241154.7475722</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-102941427.0722722</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-102941427.0722722</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-102940983.0722722</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-103338298.0266722</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-106170426.5852722</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-107350641.5272722</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-109178967.6634722</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-109178967.6634722</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-104007245.3690722</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
